--- a/data/trans_orig/Q5417-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4309</v>
+        <v>4264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006499726235948793</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03340595668850411</v>
+        <v>0.03305987595311289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9048</v>
+        <v>8511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01189908193744203</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003293686166492686</v>
+        <v>0.003278668423824695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03324054351087071</v>
+        <v>0.03126562076356052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>4077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1137</v>
+        <v>902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10018</v>
+        <v>10306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01016313587121919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002834521119029735</v>
+        <v>0.002248399038892134</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02497076399252618</v>
+        <v>0.02568714682935828</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4231</v>
+        <v>5432</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006439651018199614</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0328032041980513</v>
+        <v>0.04211358558463114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4553</v>
+        <v>4511</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00329578828592328</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01672423731769787</v>
+        <v>0.01657019925519929</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6064</v>
+        <v>6118</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004306571135686325</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01511406090029209</v>
+        <v>0.01524968239447395</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>5643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1895</v>
+        <v>2101</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11785</v>
+        <v>11186</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04374477610489195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01469108350140873</v>
+        <v>0.01628516921622152</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09135983681036834</v>
+        <v>0.08672145409095988</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -907,19 +907,19 @@
         <v>16397</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9279</v>
+        <v>8972</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25355</v>
+        <v>25701</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06023555874404964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03408644090317935</v>
+        <v>0.03295962707025878</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09314326431224264</v>
+        <v>0.09441543095584971</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -928,19 +928,19 @@
         <v>22040</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14208</v>
+        <v>14024</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31765</v>
+        <v>32859</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0549336096164038</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03541259666371121</v>
+        <v>0.03495463402415559</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07917438785657027</v>
+        <v>0.08190025104045731</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>121679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115301</v>
+        <v>115833</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125741</v>
+        <v>125575</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9433158466409597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8938713889065201</v>
+        <v>0.8979914455696654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9748006492492155</v>
+        <v>0.9735141587343915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>246</v>
@@ -978,19 +978,19 @@
         <v>251679</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>241777</v>
+        <v>241208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>259393</v>
+        <v>259609</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9245695710325851</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8881935716818569</v>
+        <v>0.8861046286287236</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9529080148195656</v>
+        <v>0.9537016788816236</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -999,19 +999,19 @@
         <v>373358</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362319</v>
+        <v>362881</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>382424</v>
+        <v>383370</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9305966833766907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9030818310201285</v>
+        <v>0.9044825990074813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9531934390081281</v>
+        <v>0.9555506036489877</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5490</v>
+        <v>6963</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005390389902093987</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02696481379859112</v>
+        <v>0.03420202282141418</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5427</v>
+        <v>5542</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002997297989136599</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01482065311132289</v>
+        <v>0.0151344147831781</v>
       </c>
     </row>
     <row r="10">
@@ -1213,19 +1213,19 @@
         <v>2770</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8400</v>
+        <v>8341</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01704178771317575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005299367417308609</v>
+        <v>0.005270623071461412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05167180453559493</v>
+        <v>0.05131097935102693</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1234,19 +1234,19 @@
         <v>6444</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2276</v>
+        <v>2332</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12904</v>
+        <v>13033</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03165112233997088</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01118026893121678</v>
+        <v>0.01145349433501714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06338188472341132</v>
+        <v>0.06401552349798925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1255,19 +1255,19 @@
         <v>9214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4864</v>
+        <v>4349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17933</v>
+        <v>16803</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02516523148901585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01328447711894853</v>
+        <v>0.01187697306260834</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04897620095456075</v>
+        <v>0.04589033500410336</v>
       </c>
     </row>
     <row r="12">
@@ -1284,19 +1284,19 @@
         <v>159785</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>154155</v>
+        <v>154214</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161694</v>
+        <v>161698</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9829582122868242</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9483281954644043</v>
+        <v>0.9486890206489728</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9947006325826914</v>
+        <v>0.9947293769285386</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>193</v>
@@ -1305,19 +1305,19 @@
         <v>196055</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>189202</v>
+        <v>188592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>200570</v>
+        <v>200392</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9629584877579351</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9292971631489571</v>
+        <v>0.9263009377609844</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9851326020942202</v>
+        <v>0.9842591819438451</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>361</v>
@@ -1326,19 +1326,19 @@
         <v>355841</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>347192</v>
+        <v>347597</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>360905</v>
+        <v>360796</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9718374705218475</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9482165766934663</v>
+        <v>0.9493210052817065</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9856681305281839</v>
+        <v>0.9853683291139298</v>
       </c>
     </row>
     <row r="13">
@@ -1490,19 +1490,19 @@
         <v>3509</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>563</v>
+        <v>1107</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8329</v>
+        <v>9363</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02402119836277965</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.003851689125922179</v>
+        <v>0.007578521837521172</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05702483436178948</v>
+        <v>0.0641022606776122</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1511,19 +1511,19 @@
         <v>3509</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10130</v>
+        <v>9542</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01205809932391134</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003879713858923162</v>
+        <v>0.003836178610490207</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03481411850850388</v>
+        <v>0.03279226393190058</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>142558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137738</v>
+        <v>136704</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>145504</v>
+        <v>144960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9759788016372204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9429751656382105</v>
+        <v>0.9358977393223877</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9961483108740795</v>
+        <v>0.9924214781624788</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>281</v>
@@ -1621,19 +1621,19 @@
         <v>287475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280854</v>
+        <v>281442</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>289855</v>
+        <v>289868</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9879419006760887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9651858814914988</v>
+        <v>0.9672077360680994</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9961202861410768</v>
+        <v>0.9961638213895098</v>
       </c>
     </row>
     <row r="18">
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6299</v>
+        <v>6292</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03246579625456188</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1605477238605452</v>
+        <v>0.1603627962755736</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6989</v>
+        <v>5600</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01438069384358226</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07890248221801112</v>
+        <v>0.06322682119977255</v>
       </c>
     </row>
     <row r="22">
@@ -1895,7 +1895,7 @@
         <v>37961</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32936</v>
+        <v>32943</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>39235</v>
@@ -1904,7 +1904,7 @@
         <v>0.9675342037454381</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8394522761394549</v>
+        <v>0.8396372037244261</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>87302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81587</v>
+        <v>82976</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>88576</v>
@@ -1925,7 +1925,7 @@
         <v>0.9856193061564177</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9210975177819879</v>
+        <v>0.9367731788002307</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3393</v>
+        <v>4692</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001725807374128376</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.006984842667567455</v>
+        <v>0.00965886433419778</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2041,19 +2041,19 @@
         <v>4337</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1130</v>
+        <v>1097</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10740</v>
+        <v>10619</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006559474613462253</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001708761715449152</v>
+        <v>0.001659727074648447</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01624603895796973</v>
+        <v>0.01606237085381173</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2062,19 +2062,19 @@
         <v>5175</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1961</v>
+        <v>1986</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11632</v>
+        <v>12837</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004512057020879822</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001709530390285728</v>
+        <v>0.001731916183889622</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01014223945410278</v>
+        <v>0.01119273422669669</v>
       </c>
     </row>
     <row r="25">
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4206</v>
+        <v>4183</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001709856201720456</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008658680045206474</v>
+        <v>0.008610157063380506</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2112,19 +2112,19 @@
         <v>4406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1146</v>
+        <v>1166</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10000</v>
+        <v>10503</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006664327732580291</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001734087077310374</v>
+        <v>0.001764205543549995</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01512583321300462</v>
+        <v>0.01588663703752545</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2133,19 +2133,19 @@
         <v>5237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1991</v>
+        <v>1939</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11202</v>
+        <v>12539</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004565740537399442</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001735960697429797</v>
+        <v>0.001690644056320099</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009767218374467828</v>
+        <v>0.01093268613870999</v>
       </c>
     </row>
     <row r="26">
@@ -2162,19 +2162,19 @@
         <v>8413</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3838</v>
+        <v>4397</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15102</v>
+        <v>15619</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01731748325862494</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007899351625241528</v>
+        <v>0.009050603603729527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03108562889272083</v>
+        <v>0.03215181617481713</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2183,19 +2183,19 @@
         <v>24115</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14999</v>
+        <v>15033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35099</v>
+        <v>35690</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03647603455729803</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02268772904603348</v>
+        <v>0.0227392964587061</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05309040689702433</v>
+        <v>0.05398476975595518</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2204,19 +2204,19 @@
         <v>32528</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23184</v>
+        <v>22030</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46018</v>
+        <v>46507</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0283609631146263</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02021420242052367</v>
+        <v>0.01920786851264076</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04012291144880058</v>
+        <v>0.04054952230361489</v>
       </c>
     </row>
     <row r="27">
@@ -2233,19 +2233,19 @@
         <v>475722</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>468758</v>
+        <v>468165</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>480579</v>
+        <v>480531</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9792468531655262</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9649127766683792</v>
+        <v>0.9636913006660042</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9892442586908446</v>
+        <v>0.9891466341609745</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>614</v>
@@ -2254,19 +2254,19 @@
         <v>628255</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>616894</v>
+        <v>615063</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>638785</v>
+        <v>638586</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9503001630966594</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9331162466253968</v>
+        <v>0.9303468964685462</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9662285042284061</v>
+        <v>0.9659265157296815</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1109</v>
@@ -2275,19 +2275,19 @@
         <v>1103977</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1088877</v>
+        <v>1088940</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1115408</v>
+        <v>1115864</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9625612393270945</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9493955628937848</v>
+        <v>0.9494502103362947</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.97252798196256</v>
+        <v>0.9729260253063765</v>
       </c>
     </row>
     <row r="28">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7170</v>
+        <v>7311</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01548889640694353</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05213127559980829</v>
+        <v>0.05315661810499831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2640,19 +2640,19 @@
         <v>5795</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2179</v>
+        <v>2167</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12731</v>
+        <v>12985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02687469552609287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01010633012188105</v>
+        <v>0.01005077137714203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05904021415452306</v>
+        <v>0.06021948504373416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2661,19 +2661,19 @@
         <v>7925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3393</v>
+        <v>3593</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15054</v>
+        <v>15802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02244074722019375</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009608087138948472</v>
+        <v>0.01017240280289307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.042625407086194</v>
+        <v>0.04474376559118686</v>
       </c>
     </row>
     <row r="5">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5412</v>
+        <v>5503</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004616793185488734</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02509707975965718</v>
+        <v>0.02552157467434734</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4043</v>
+        <v>6087</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002818884921934741</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01144865322818037</v>
+        <v>0.01723552026799924</v>
       </c>
     </row>
     <row r="6">
@@ -2753,19 +2753,19 @@
         <v>5480</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11612</v>
+        <v>11319</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0398453755588153</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.014872768641311</v>
+        <v>0.01486427398923867</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08442867779681565</v>
+        <v>0.08230382039029621</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -2774,19 +2774,19 @@
         <v>13923</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7450</v>
+        <v>8034</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22579</v>
+        <v>22113</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06456955951305125</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03454949744629505</v>
+        <v>0.03725564439584084</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.104707601264583</v>
+        <v>0.1025466186479136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -2795,19 +2795,19 @@
         <v>19403</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11602</v>
+        <v>11616</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29573</v>
+        <v>29285</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05494127146656295</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03285110472770886</v>
+        <v>0.03289175266871441</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08373719232198028</v>
+        <v>0.08292083458441873</v>
       </c>
     </row>
     <row r="7">
@@ -2824,19 +2824,19 @@
         <v>129923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123076</v>
+        <v>123507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134396</v>
+        <v>134398</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9446657280342412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8948844764616549</v>
+        <v>0.8980160187154826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9771914029592184</v>
+        <v>0.9772075055858314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>182</v>
@@ -2845,19 +2845,19 @@
         <v>194920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184713</v>
+        <v>184345</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202640</v>
+        <v>202157</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9039389517753671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8566034234858995</v>
+        <v>0.854896366090878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.939742181767185</v>
+        <v>0.9374990535284413</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>298</v>
@@ -2866,19 +2866,19 @@
         <v>324843</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>312949</v>
+        <v>313017</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>334328</v>
+        <v>334370</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9197990963913085</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8861222450924117</v>
+        <v>0.8863133815734708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9466562665922376</v>
+        <v>0.9467754365778936</v>
       </c>
     </row>
     <row r="8">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4099</v>
+        <v>5261</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005784943124470701</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02376927646911343</v>
+        <v>0.03050409883093362</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -2991,19 +2991,19 @@
         <v>5456</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12962</v>
+        <v>11885</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02208189868864843</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008698547564031045</v>
+        <v>0.008687666537042744</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05246341840822786</v>
+        <v>0.04810450716462683</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -3012,19 +3012,19 @@
         <v>6453</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2172</v>
+        <v>2232</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13467</v>
+        <v>13204</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01538228759326489</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005177607459551568</v>
+        <v>0.005319155397370892</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03210025192887231</v>
+        <v>0.0314736480976042</v>
       </c>
     </row>
     <row r="10">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12861</v>
+        <v>12429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01911026640173197</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07456923925169837</v>
+        <v>0.07206392904473648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3062,19 +3062,19 @@
         <v>3261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1042</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8853</v>
+        <v>8569</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01320070774515459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004215620963933398</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03583439107971542</v>
+        <v>0.03468393102543256</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3083,19 +3083,19 @@
         <v>6557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16275</v>
+        <v>16030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01563010289129171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005187059442569606</v>
+        <v>0.005190447077350031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03879265136345231</v>
+        <v>0.03820880946084411</v>
       </c>
     </row>
     <row r="11">
@@ -3112,19 +3112,19 @@
         <v>5299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2009</v>
+        <v>2042</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11853</v>
+        <v>12751</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03072417118759855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01165076525966585</v>
+        <v>0.01184105925261371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06872446217777825</v>
+        <v>0.07393207442171412</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -3133,19 +3133,19 @@
         <v>14369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8067</v>
+        <v>7387</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23517</v>
+        <v>23791</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05815977784381392</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03265251587197775</v>
+        <v>0.02989739827071877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09518575467033581</v>
+        <v>0.09629215668677053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -3154,19 +3154,19 @@
         <v>19668</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11867</v>
+        <v>11529</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29413</v>
+        <v>29991</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04688111330805324</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02828602481954996</v>
+        <v>0.02748072231116199</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07010949650794417</v>
+        <v>0.07148712848074587</v>
       </c>
     </row>
     <row r="12">
@@ -3183,19 +3183,19 @@
         <v>162877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>154063</v>
+        <v>153053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168262</v>
+        <v>168086</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9443806192861988</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8932720720626383</v>
+        <v>0.8874167390164139</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9756003001734812</v>
+        <v>0.9745828449663183</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>215</v>
@@ -3204,19 +3204,19 @@
         <v>223980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>213914</v>
+        <v>214166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>232310</v>
+        <v>233040</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.906557615722383</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8658133711049224</v>
+        <v>0.8668330438248988</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9402721333473278</v>
+        <v>0.9432256048797416</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>364</v>
@@ -3225,19 +3225,19 @@
         <v>386857</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>373401</v>
+        <v>374230</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>397326</v>
+        <v>397772</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9221064962073902</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8900322026989237</v>
+        <v>0.8920101607275192</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9470617201985021</v>
+        <v>0.9481234912473001</v>
       </c>
     </row>
     <row r="13">
@@ -3329,19 +3329,19 @@
         <v>3088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8409</v>
+        <v>8603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01857798689632247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005919993136955118</v>
+        <v>0.005858138737380452</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05058421313801801</v>
+        <v>0.05175047058078641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8619</v>
+        <v>7624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01153129077726244</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04487176613743361</v>
+        <v>0.03969523485408751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3371,19 +3371,19 @@
         <v>5303</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2095</v>
+        <v>2000</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12693</v>
+        <v>11741</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01480058466516639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005845916891291647</v>
+        <v>0.005581099847155132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03542538260201778</v>
+        <v>0.03276835227332794</v>
       </c>
     </row>
     <row r="15">
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6422</v>
+        <v>5602</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006357584602284996</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03863035767413196</v>
+        <v>0.03369762463857972</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -3421,19 +3421,19 @@
         <v>7541</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3149</v>
+        <v>3246</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15777</v>
+        <v>16849</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03925958558260974</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01639754751138098</v>
+        <v>0.01690246094488209</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08214289394526247</v>
+        <v>0.08772214427761264</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -3442,19 +3442,19 @@
         <v>8597</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3295</v>
+        <v>3406</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16905</v>
+        <v>17660</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02399479923630509</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.009196155240122848</v>
+        <v>0.009505565016076304</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04717916494386255</v>
+        <v>0.04928798947723834</v>
       </c>
     </row>
     <row r="16">
@@ -3471,19 +3471,19 @@
         <v>2987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8678</v>
+        <v>8031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01796701644031398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005709745104610805</v>
+        <v>0.005762215380141113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05220124824971931</v>
+        <v>0.0483102084106274</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3492,19 +3492,19 @@
         <v>6471</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2215</v>
+        <v>2163</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13789</v>
+        <v>13290</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03369067456897749</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01153234356629446</v>
+        <v>0.01125956092420782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07179112045547448</v>
+        <v>0.06919464250455885</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -3513,19 +3513,19 @@
         <v>9458</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4311</v>
+        <v>4276</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17822</v>
+        <v>17455</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02639572973994065</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0120323378293896</v>
+        <v>0.01193486406724604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04974074490452074</v>
+        <v>0.04871506528746826</v>
       </c>
     </row>
     <row r="17">
@@ -3542,19 +3542,19 @@
         <v>159103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152292</v>
+        <v>152829</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163228</v>
+        <v>163178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9570974120610786</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9161238348395658</v>
+        <v>0.9193577051752921</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9819106527268706</v>
+        <v>0.9816131177724796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>165</v>
@@ -3563,19 +3563,19 @@
         <v>175845</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164968</v>
+        <v>165693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183245</v>
+        <v>183121</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9155184490711503</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.858889921292414</v>
+        <v>0.8626632586993214</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9540505132404719</v>
+        <v>0.9534023158908164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>309</v>
@@ -3584,19 +3584,19 @@
         <v>334948</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>324124</v>
+        <v>323837</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>343353</v>
+        <v>343669</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9348088863585878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9046015389942473</v>
+        <v>0.9038005906696377</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.95826789883899</v>
+        <v>0.9591508011754487</v>
       </c>
     </row>
     <row r="18">
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5388</v>
+        <v>5335</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01270247634288152</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06335462176194791</v>
+        <v>0.06273149420626291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7269</v>
+        <v>6757</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01294899477260006</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04455411792977505</v>
+        <v>0.04141783819106343</v>
       </c>
     </row>
     <row r="20">
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6795</v>
+        <v>7357</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02617058658350728</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07989267799199073</v>
+        <v>0.08650560383814974</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7956</v>
+        <v>8905</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01364299117335386</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04876579779788957</v>
+        <v>0.05458074159265495</v>
       </c>
     </row>
     <row r="21">
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6363</v>
+        <v>4637</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01409246044584042</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0814745854534783</v>
+        <v>0.05937306133688577</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5762</v>
+        <v>5471</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01331754227682323</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06774581084972084</v>
+        <v>0.06432896106979026</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7629</v>
+        <v>7909</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01368848777574996</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04676260035634819</v>
+        <v>0.04847816837164488</v>
       </c>
     </row>
     <row r="22">
@@ -3893,7 +3893,7 @@
         <v>75964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71666</v>
+        <v>71226</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>78097</v>
@@ -3902,7 +3902,7 @@
         <v>0.9726900775577543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9176515616149138</v>
+        <v>0.9120200847174404</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -3914,19 +3914,19 @@
         <v>80611</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>75948</v>
+        <v>75243</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83962</v>
+        <v>83953</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9478093947967879</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8929833791527088</v>
+        <v>0.884695525936256</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9872065612143552</v>
+        <v>0.9871045325194524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -3935,19 +3935,19 @@
         <v>156574</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>149451</v>
+        <v>150073</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160868</v>
+        <v>160829</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9597195262782962</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9160598167644972</v>
+        <v>0.9198680557959555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9860393677172864</v>
+        <v>0.9857996708652367</v>
       </c>
     </row>
     <row r="23">
@@ -4039,19 +4039,19 @@
         <v>7249</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3030</v>
+        <v>3093</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13429</v>
+        <v>13579</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01307606669956355</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005466426327693419</v>
+        <v>0.005578973916154029</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02422492667098758</v>
+        <v>0.02449618175808114</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -4060,19 +4060,19 @@
         <v>14546</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7574</v>
+        <v>7798</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23874</v>
+        <v>23423</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01966145639814115</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01023786827212348</v>
+        <v>0.01054054254514305</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.032270030993568</v>
+        <v>0.03165993088171924</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -4081,19 +4081,19 @@
         <v>21794</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14009</v>
+        <v>13277</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>32333</v>
+        <v>32361</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01684069278905652</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0108250226011616</v>
+        <v>0.01025956412381451</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02498353403849149</v>
+        <v>0.02500522603086888</v>
       </c>
     </row>
     <row r="25">
@@ -4110,19 +4110,19 @@
         <v>4353</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1027</v>
+        <v>1053</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14342</v>
+        <v>14431</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007852291486974538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001852127419428037</v>
+        <v>0.001899501603216621</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02587201770948989</v>
+        <v>0.02603361228841742</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4131,19 +4131,19 @@
         <v>14023</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7678</v>
+        <v>7584</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24315</v>
+        <v>24732</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01895514721216411</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01037817308024369</v>
+        <v>0.01025132492419394</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03286648732932707</v>
+        <v>0.03342905500774394</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -4152,19 +4152,19 @@
         <v>18376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10640</v>
+        <v>10782</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30357</v>
+        <v>31155</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01419938744394624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008221534187268032</v>
+        <v>0.008331543163806014</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02345702785879937</v>
+        <v>0.02407386349521853</v>
       </c>
     </row>
     <row r="26">
@@ -4181,19 +4181,19 @@
         <v>14866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7546</v>
+        <v>8378</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24587</v>
+        <v>23277</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0268184090334377</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01361295644520952</v>
+        <v>0.01511332708183985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04435396381437211</v>
+        <v>0.04199166997057228</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -4202,19 +4202,19 @@
         <v>35896</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25749</v>
+        <v>25218</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50492</v>
+        <v>48932</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04852033469933219</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03480470603290566</v>
+        <v>0.03408705432543049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06824953854147532</v>
+        <v>0.06614019160992325</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>47</v>
@@ -4223,19 +4223,19 @@
         <v>50763</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36471</v>
+        <v>37809</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>65057</v>
+        <v>65487</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03922460506640898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02818158123331486</v>
+        <v>0.02921521508446461</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05026956724471875</v>
+        <v>0.05060218989765046</v>
       </c>
     </row>
     <row r="27">
@@ -4252,19 +4252,19 @@
         <v>527866</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>514537</v>
+        <v>516100</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>537582</v>
+        <v>536959</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9522532327800242</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9282075867601434</v>
+        <v>0.9310275058948322</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9697795951752138</v>
+        <v>0.9686558264823999</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>633</v>
@@ -4273,19 +4273,19 @@
         <v>675355</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>657767</v>
+        <v>658895</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>689140</v>
+        <v>690446</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9128630616903626</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8890898509307965</v>
+        <v>0.8906141478301123</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9314962094724223</v>
+        <v>0.9332603713007103</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1108</v>
@@ -4294,19 +4294,19 @@
         <v>1203222</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1183459</v>
+        <v>1182337</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1221663</v>
+        <v>1221316</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9297353147005882</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9144644285786182</v>
+        <v>0.9135976685688898</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9439853605349195</v>
+        <v>0.943716715347217</v>
       </c>
     </row>
     <row r="28">
@@ -4651,19 +4651,19 @@
         <v>5137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1265</v>
+        <v>1284</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12689</v>
+        <v>13011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01972878755218701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004859794224501749</v>
+        <v>0.004929532040828781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04873481081713583</v>
+        <v>0.04997072040067581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4672,19 +4672,19 @@
         <v>5137</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11485</v>
+        <v>11756</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01203503000817232</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0029779756967708</v>
+        <v>0.002983051460561904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02690738595175147</v>
+        <v>0.02754274716501191</v>
       </c>
     </row>
     <row r="5">
@@ -4701,19 +4701,19 @@
         <v>4217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9632</v>
+        <v>9384</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02533585756214473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009955985437210794</v>
+        <v>0.009877445786978335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05786681732108872</v>
+        <v>0.05637617590370868</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4735,19 +4735,19 @@
         <v>4217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9484</v>
+        <v>9442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009880381383661064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003799050387188786</v>
+        <v>0.003834003186525127</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02221866618661449</v>
+        <v>0.0221212925770887</v>
       </c>
     </row>
     <row r="6">
@@ -4764,19 +4764,19 @@
         <v>4067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8994</v>
+        <v>9345</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02443456569038012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009564156103561863</v>
+        <v>0.009532589243972737</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05403462186260307</v>
+        <v>0.0561408941308527</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4785,19 +4785,19 @@
         <v>13536</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7318</v>
+        <v>7236</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22308</v>
+        <v>22413</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05198739791134474</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02810720816697435</v>
+        <v>0.02778933133154729</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08567372099427081</v>
+        <v>0.08608034904059735</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -4806,19 +4806,19 @@
         <v>17604</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10140</v>
+        <v>9767</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27064</v>
+        <v>27142</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04124244918105552</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02375586077769177</v>
+        <v>0.02288318620189655</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06340749424662388</v>
+        <v>0.06358937206255397</v>
       </c>
     </row>
     <row r="7">
@@ -4835,19 +4835,19 @@
         <v>158170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152068</v>
+        <v>151373</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162319</v>
+        <v>162339</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9502295767474751</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9135730196895718</v>
+        <v>0.9093979879483648</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9751575105606501</v>
+        <v>0.9752797108196868</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -4856,19 +4856,19 @@
         <v>241705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>230909</v>
+        <v>230653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>249083</v>
+        <v>249443</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9282838145364682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8868229077833628</v>
+        <v>0.8858381750399754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9566225399121742</v>
+        <v>0.9580043020648078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>372</v>
@@ -4877,19 +4877,19 @@
         <v>399874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>387193</v>
+        <v>387417</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>409153</v>
+        <v>409209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9368421394271111</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9071314722998263</v>
+        <v>0.9076569419108778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9585813553134979</v>
+        <v>0.9587113888563671</v>
       </c>
     </row>
     <row r="8">
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4515</v>
+        <v>4428</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005256071885784249</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02659532323943842</v>
+        <v>0.02608211756457295</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5985</v>
+        <v>6003</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005406893170645416</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02710722843995341</v>
+        <v>0.02718797652797815</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6880</v>
+        <v>6570</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005341337604836897</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01761589618809896</v>
+        <v>0.01682127271107157</v>
       </c>
     </row>
     <row r="10">
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6116</v>
+        <v>6025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005376723995904812</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02769757871889703</v>
+        <v>0.02728560338300578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5966</v>
+        <v>5995</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003039691898132695</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01527445147809726</v>
+        <v>0.01534885835419633</v>
       </c>
     </row>
     <row r="11">
@@ -5115,19 +5115,19 @@
         <v>4891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1614</v>
+        <v>1575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10775</v>
+        <v>11603</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02881262043288211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0095099248043442</v>
+        <v>0.009276022152570408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06347202461037134</v>
+        <v>0.06834575187971813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -5136,19 +5136,19 @@
         <v>7366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2685</v>
+        <v>2722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15157</v>
+        <v>15682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03335967318836643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01215987352173147</v>
+        <v>0.01232771283393822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06864497039059858</v>
+        <v>0.07102007090752203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -5157,19 +5157,19 @@
         <v>12257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6483</v>
+        <v>6321</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20854</v>
+        <v>21330</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03138326371525162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01659952447471823</v>
+        <v>0.01618490960823838</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05339341041739218</v>
+        <v>0.05461239807408794</v>
       </c>
     </row>
     <row r="12">
@@ -5186,19 +5186,19 @@
         <v>163979</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>157896</v>
+        <v>157479</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>167983</v>
+        <v>168066</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9659313076813336</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9300969547175462</v>
+        <v>0.9276377268051372</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9895122933150085</v>
+        <v>0.9900026688207855</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>180</v>
@@ -5207,19 +5207,19 @@
         <v>211058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>202313</v>
+        <v>202657</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>216142</v>
+        <v>216066</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9558567096450833</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.916251824267434</v>
+        <v>0.917809428616946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9788823230432415</v>
+        <v>0.9785363064678891</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>357</v>
@@ -5228,19 +5228,19 @@
         <v>375037</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>365304</v>
+        <v>365260</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>381759</v>
+        <v>381752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9602357067817788</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9353143481702543</v>
+        <v>0.9352023311240547</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9774454812433329</v>
+        <v>0.9774287627650157</v>
       </c>
     </row>
     <row r="13">
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10067</v>
+        <v>10875</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01740623108791067</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05468166177924177</v>
+        <v>0.05906781697791118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12111</v>
+        <v>11214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009428671390589</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03563493803563695</v>
+        <v>0.0329937146288504</v>
       </c>
     </row>
     <row r="15">
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6761</v>
+        <v>6557</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01217434849031231</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04340361716417782</v>
+        <v>0.04209568463418997</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7931</v>
+        <v>8511</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01339755162413085</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04307864278661063</v>
+        <v>0.04622673200517109</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -5437,19 +5437,19 @@
         <v>4363</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1224</v>
+        <v>1008</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10314</v>
+        <v>10122</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01283693767084571</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003600164196631049</v>
+        <v>0.002965194304530452</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03034570482162012</v>
+        <v>0.02978143094907463</v>
       </c>
     </row>
     <row r="16">
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5960</v>
+        <v>6569</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008036691243977585</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0382607749275592</v>
+        <v>0.04216769362339105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5487,19 +5487,19 @@
         <v>7526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2692</v>
+        <v>2745</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16147</v>
+        <v>16289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04087822517350232</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01462217429557532</v>
+        <v>0.01491149054930957</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08770222846222944</v>
+        <v>0.08847747672821253</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5508,19 +5508,19 @@
         <v>8778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3499</v>
+        <v>3823</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16333</v>
+        <v>17475</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02582641435063182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01029396536689407</v>
+        <v>0.01124870244861313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04805554010245131</v>
+        <v>0.05141633537416495</v>
       </c>
     </row>
     <row r="17">
@@ -5537,19 +5537,19 @@
         <v>152623</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147083</v>
+        <v>147219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>154876</v>
+        <v>155771</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9797889602657102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9442243831652475</v>
+        <v>0.9450997790997981</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9942521158359781</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -5558,19 +5558,19 @@
         <v>170909</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160746</v>
+        <v>161003</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177538</v>
+        <v>177189</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9283179921144562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.873119063112912</v>
+        <v>0.8745115508857492</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9643266577455817</v>
+        <v>0.9624307029989267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>305</v>
@@ -5579,19 +5579,19 @@
         <v>323532</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>312524</v>
+        <v>311898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>331026</v>
+        <v>330900</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9519079765879335</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9195217855191313</v>
+        <v>0.9176785220370141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9739568307142836</v>
+        <v>0.9735874997934516</v>
       </c>
     </row>
     <row r="18">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6342</v>
+        <v>6442</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0205142297087167</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07211627540437911</v>
+        <v>0.07324939254871317</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5644</v>
+        <v>6420</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009276616751635044</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02901907507290395</v>
+        <v>0.0330113509535532</v>
       </c>
     </row>
     <row r="20">
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5825</v>
+        <v>4750</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009093334217640484</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05467925969401813</v>
+        <v>0.04458921069212089</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4839</v>
+        <v>4944</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004981292102028586</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02488383836282011</v>
+        <v>0.02542388989302654</v>
       </c>
     </row>
     <row r="21">
@@ -5822,19 +5822,19 @@
         <v>3852</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1199</v>
+        <v>1218</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9499</v>
+        <v>11043</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0361555924863623</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01125453844636763</v>
+        <v>0.01143483875574939</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08916576604129191</v>
+        <v>0.1036517072858099</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -5843,19 +5843,19 @@
         <v>3852</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10118</v>
+        <v>10308</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01980588890564422</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006199222027235017</v>
+        <v>0.006234256671815947</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05202801041384498</v>
+        <v>0.053003477607388</v>
       </c>
     </row>
     <row r="22">
@@ -5872,7 +5872,7 @@
         <v>86141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81603</v>
+        <v>81503</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>87945</v>
@@ -5881,7 +5881,7 @@
         <v>0.9794857702912833</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.927883724595621</v>
+        <v>0.9267506074512868</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -5893,19 +5893,19 @@
         <v>101715</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>95087</v>
+        <v>95391</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105249</v>
+        <v>105247</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9547510732959972</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8925359039105184</v>
+        <v>0.8953880591081678</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.987923076903527</v>
+        <v>0.9879028898578162</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>174</v>
@@ -5914,19 +5914,19 @@
         <v>187856</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180911</v>
+        <v>179698</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>192200</v>
+        <v>191537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9659362022406921</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9302225764995575</v>
+        <v>0.9239849031615337</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9882726684920915</v>
+        <v>0.9848626335011801</v>
       </c>
     </row>
     <row r="23">
@@ -6018,19 +6018,19 @@
         <v>2696</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7187</v>
+        <v>8153</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004649522437689487</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001521453615215065</v>
+        <v>0.001533564657053289</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01239195244184749</v>
+        <v>0.01405904732073255</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -6039,19 +6039,19 @@
         <v>9535</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3831</v>
+        <v>3730</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20342</v>
+        <v>18904</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01235435492709007</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004964209457712769</v>
+        <v>0.004832532286227009</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02635548508489888</v>
+        <v>0.02449313994822625</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -6060,19 +6060,19 @@
         <v>12232</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6559</v>
+        <v>5509</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23099</v>
+        <v>22451</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009048812867966036</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004852274461296551</v>
+        <v>0.00407550232568652</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01708799799446903</v>
+        <v>0.01660877322384529</v>
       </c>
     </row>
     <row r="25">
@@ -6089,19 +6089,19 @@
         <v>6114</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2654</v>
+        <v>2632</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12394</v>
+        <v>11352</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01054201897636344</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004576178528608406</v>
+        <v>0.004537949897570254</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02137150909865507</v>
+        <v>0.01957533726542109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -6110,19 +6110,19 @@
         <v>4623</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1223</v>
+        <v>1193</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11643</v>
+        <v>11253</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005989113288020463</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001584702492672246</v>
+        <v>0.001546054612246288</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0150849353321459</v>
+        <v>0.01457967412784306</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -6131,19 +6131,19 @@
         <v>10736</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5668</v>
+        <v>5415</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18725</v>
+        <v>18388</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007942409646474276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004193045913417732</v>
+        <v>0.004006163394584386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01385211281626859</v>
+        <v>0.013602942552423</v>
       </c>
     </row>
     <row r="26">
@@ -6160,19 +6160,19 @@
         <v>10210</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5038</v>
+        <v>5621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17631</v>
+        <v>19147</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01760622201565126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008687582630849728</v>
+        <v>0.009692983589700723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03040157124626698</v>
+        <v>0.03301555595456884</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -6181,19 +6181,19 @@
         <v>32280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22172</v>
+        <v>21241</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46089</v>
+        <v>45880</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04182315019519004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02872647057180661</v>
+        <v>0.02751988555448689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0597147245967137</v>
+        <v>0.05944306894762753</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -6202,19 +6202,19 @@
         <v>42491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30435</v>
+        <v>30851</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57364</v>
+        <v>59157</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0314335570729028</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0225152216924518</v>
+        <v>0.02282275216967497</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04243683738665414</v>
+        <v>0.04376309698562776</v>
       </c>
     </row>
     <row r="27">
@@ -6231,19 +6231,19 @@
         <v>560913</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>551616</v>
+        <v>551994</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>568137</v>
+        <v>568061</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9672022365702958</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9511707587678015</v>
+        <v>0.9518222732142091</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9796574346772359</v>
+        <v>0.9795274774784645</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>613</v>
@@ -6252,19 +6252,19 @@
         <v>725386</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>707853</v>
+        <v>708066</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>737766</v>
+        <v>738771</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9398333815896994</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9171172421792055</v>
+        <v>0.9173929253932686</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9558728769722268</v>
+        <v>0.9571761033545773</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1208</v>
@@ -6273,19 +6273,19 @@
         <v>1286299</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1268936</v>
+        <v>1267747</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1301418</v>
+        <v>1301091</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9515752204126569</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9387302245474918</v>
+        <v>0.9378504738979966</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9627599753001078</v>
+        <v>0.9625176260390517</v>
       </c>
     </row>
     <row r="28">
@@ -6630,19 +6630,19 @@
         <v>4104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1840</v>
+        <v>1571</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8925</v>
+        <v>8215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02869373732182452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01286833224717247</v>
+        <v>0.0109834524824386</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06240460559715043</v>
+        <v>0.05743940650240795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -6651,19 +6651,19 @@
         <v>4104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1871</v>
+        <v>1675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8321</v>
+        <v>8443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01951387906742978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008896600335527249</v>
+        <v>0.007966433311525906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03957055386141851</v>
+        <v>0.04015167540450357</v>
       </c>
     </row>
     <row r="5">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4553</v>
+        <v>4529</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009157873600179866</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0318380859126417</v>
+        <v>0.03166526907637034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -6717,16 +6717,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4595</v>
+        <v>4512</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.006228036311351947</v>
+        <v>0.006228036311351948</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02185234981642357</v>
+        <v>0.02145459630463874</v>
       </c>
     </row>
     <row r="6">
@@ -6743,19 +6743,19 @@
         <v>3072</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7200</v>
+        <v>7247</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04565769280512958</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01405338792561797</v>
+        <v>0.01380360770109991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1070159596707703</v>
+        <v>0.107718635708938</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -6764,19 +6764,19 @@
         <v>8259</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4834</v>
+        <v>4575</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13463</v>
+        <v>13245</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05775051359864657</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03380360595303118</v>
+        <v>0.0319895278483696</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09413974594121659</v>
+        <v>0.0926125765599559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -6785,19 +6785,19 @@
         <v>11331</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7037</v>
+        <v>7344</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17929</v>
+        <v>17341</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05388171186204432</v>
+        <v>0.05388171186204433</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03346336666490185</v>
+        <v>0.03492119285708963</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0852562766991509</v>
+        <v>0.08246101916693235</v>
       </c>
     </row>
     <row r="7">
@@ -6814,19 +6814,19 @@
         <v>64205</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60077</v>
+        <v>60030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66332</v>
+        <v>66348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9543423071948705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8929840403292294</v>
+        <v>0.8922813642910625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9859466120743822</v>
+        <v>0.9861963922989002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>241</v>
@@ -6835,19 +6835,19 @@
         <v>129341</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122643</v>
+        <v>122918</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133466</v>
+        <v>133724</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.904397875479349</v>
+        <v>0.9043978754793489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8575632603539384</v>
+        <v>0.8594895368071797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9332463125812409</v>
+        <v>0.935045487981119</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>331</v>
@@ -6856,19 +6856,19 @@
         <v>193546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>186086</v>
+        <v>186654</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>198841</v>
+        <v>198734</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9203763727591737</v>
+        <v>0.9203763727591742</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8849003133032098</v>
+        <v>0.8876043915053429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9455563777072834</v>
+        <v>0.9450468481134587</v>
       </c>
     </row>
     <row r="8">
@@ -6960,19 +6960,19 @@
         <v>1771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>593</v>
+        <v>477</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008817333611886372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002950679087786136</v>
+        <v>0.002373489319936195</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02178963312204666</v>
+        <v>0.02178502794843409</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -6981,19 +6981,19 @@
         <v>3663</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1509</v>
+        <v>1368</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8665</v>
+        <v>8379</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01211584512632521</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004990618945525624</v>
+        <v>0.004523204538441004</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0286610643519437</v>
+        <v>0.02771460650211442</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -7002,19 +7002,19 @@
         <v>5434</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2736</v>
+        <v>2793</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10819</v>
+        <v>10332</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01079941186998442</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005438642333672181</v>
+        <v>0.005551785627202638</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02150354307886602</v>
+        <v>0.02053459569584906</v>
       </c>
     </row>
     <row r="10">
@@ -7031,19 +7031,19 @@
         <v>3187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8332</v>
+        <v>7632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01586998801611085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00458779728719827</v>
+        <v>0.004565069015238363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04149384523476542</v>
+        <v>0.03800628597132766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -7052,19 +7052,19 @@
         <v>2150</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>631</v>
+        <v>575</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5202</v>
+        <v>5047</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007112683416533223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002085500827229785</v>
+        <v>0.001901192860782843</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01720585418765454</v>
+        <v>0.01669433614811483</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -7073,19 +7073,19 @@
         <v>5337</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2524</v>
+        <v>2485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11577</v>
+        <v>10765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01060771654293763</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005016652368539449</v>
+        <v>0.00493828996049043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0230098718301416</v>
+        <v>0.02139474996130228</v>
       </c>
     </row>
     <row r="11">
@@ -7102,19 +7102,19 @@
         <v>5964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2621</v>
+        <v>2834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10803</v>
+        <v>11347</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02970215469599819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01305094530934519</v>
+        <v>0.01411440888945666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05380070787666424</v>
+        <v>0.05650942567421744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -7123,19 +7123,19 @@
         <v>15997</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10798</v>
+        <v>10966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22308</v>
+        <v>22350</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05291113276139048</v>
+        <v>0.05291113276139049</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0357162327890734</v>
+        <v>0.03627047010996916</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.073786806707806</v>
+        <v>0.07392479198309453</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -7144,19 +7144,19 @@
         <v>21961</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15736</v>
+        <v>15774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29677</v>
+        <v>29766</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.04364844853633205</v>
+        <v>0.04364844853633203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03127485542857001</v>
+        <v>0.03135078604901011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05898373851182365</v>
+        <v>0.05916073526188178</v>
       </c>
     </row>
     <row r="12">
@@ -7173,19 +7173,19 @@
         <v>189880</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>183483</v>
+        <v>183009</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>194409</v>
+        <v>194313</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9456105236760045</v>
+        <v>0.9456105236760046</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9137493526236057</v>
+        <v>0.9113911601334577</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9681637609544896</v>
+        <v>0.9676827526332457</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>527</v>
@@ -7194,19 +7194,19 @@
         <v>280527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>273444</v>
+        <v>273071</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>287018</v>
+        <v>286530</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9278603386957514</v>
+        <v>0.9278603386957511</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.904434631923498</v>
+        <v>0.9032022139085445</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9493300929698358</v>
+        <v>0.9477189108143411</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>804</v>
@@ -7215,19 +7215,19 @@
         <v>470407</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>460812</v>
+        <v>460094</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>478226</v>
+        <v>477339</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.934944423050746</v>
+        <v>0.9349444230507458</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9158735027134227</v>
+        <v>0.9144466952324803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9504839873786627</v>
+        <v>0.9487228838654113</v>
       </c>
     </row>
     <row r="13">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1798</v>
+        <v>2445</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001495307999741915</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007839151111855409</v>
+        <v>0.01066198842864333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -7340,19 +7340,19 @@
         <v>2550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>974</v>
+        <v>1059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5661</v>
+        <v>6124</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01078192009927063</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004118374916618554</v>
+        <v>0.004478825639915027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02393414300380194</v>
+        <v>0.02589532789566901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -7361,19 +7361,19 @@
         <v>2893</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1319</v>
+        <v>1152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5715</v>
+        <v>5649</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.006210327171148369</v>
+        <v>0.00621032717114837</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002832282093404801</v>
+        <v>0.002473556844476223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01226880522263443</v>
+        <v>0.01212764547294942</v>
       </c>
     </row>
     <row r="15">
@@ -7403,19 +7403,19 @@
         <v>2976</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>887</v>
+        <v>908</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6620</v>
+        <v>7142</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0125825661613553</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.00375126181568288</v>
+        <v>0.003838364922508437</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02799215086612958</v>
+        <v>0.03019549815577203</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -7424,19 +7424,19 @@
         <v>2976</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1052</v>
+        <v>1069</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7188</v>
+        <v>7409</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.006388448234991009</v>
+        <v>0.006388448234991008</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002257771931706232</v>
+        <v>0.002293998836551432</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01543088772786192</v>
+        <v>0.01590537241571459</v>
       </c>
     </row>
     <row r="16">
@@ -7453,19 +7453,19 @@
         <v>3215</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7282</v>
+        <v>7506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01401793845051288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004058877511856445</v>
+        <v>0.004097866537048948</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03175468900737776</v>
+        <v>0.03273298997463235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -7474,19 +7474,19 @@
         <v>8702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5236</v>
+        <v>5002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14762</v>
+        <v>14970</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0367916237056623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02213719341727378</v>
+        <v>0.0211489850150045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0624167642428483</v>
+        <v>0.06329393180696206</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -7495,19 +7495,19 @@
         <v>11916</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7212</v>
+        <v>7034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17791</v>
+        <v>17897</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02558064414240405</v>
+        <v>0.02558064414240404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01548241081316682</v>
+        <v>0.0151009556892597</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03819210184642651</v>
+        <v>0.03842073921209195</v>
       </c>
     </row>
     <row r="17">
@@ -7524,19 +7524,19 @@
         <v>225757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>221765</v>
+        <v>221503</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>228065</v>
+        <v>228040</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9844867535497451</v>
+        <v>0.9844867535497452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9670788933978476</v>
+        <v>0.9659378294535012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9945530255667081</v>
+        <v>0.994443069049682</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>422</v>
@@ -7545,19 +7545,19 @@
         <v>222282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215325</v>
+        <v>215584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>226995</v>
+        <v>227011</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9398438900337117</v>
+        <v>0.9398438900337118</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9104308843854173</v>
+        <v>0.9115256928993636</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9597753137208521</v>
+        <v>0.9598399196431482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>745</v>
@@ -7566,19 +7566,19 @@
         <v>448038</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>441259</v>
+        <v>440887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>453632</v>
+        <v>453782</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9618205804514566</v>
+        <v>0.9618205804514565</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9472677381720833</v>
+        <v>0.9464687618916988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9738297604909174</v>
+        <v>0.9741512617825765</v>
       </c>
     </row>
     <row r="18">
@@ -7683,19 +7683,19 @@
         <v>1678</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4548</v>
+        <v>4430</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00806653767727108</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00240576984802583</v>
+        <v>0.002406449565864947</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02186000921697381</v>
+        <v>0.02129707136781887</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -7704,19 +7704,19 @@
         <v>1678</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4536</v>
+        <v>4686</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003987115969106138</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001181020689098343</v>
+        <v>0.00120334004713755</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01077731438406142</v>
+        <v>0.0111344319408382</v>
       </c>
     </row>
     <row r="20">
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3715</v>
+        <v>2786</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003042098416603249</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01745416746192405</v>
+        <v>0.01308758362025617</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7757,16 +7757,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3407</v>
+        <v>3395</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.005168556701481389</v>
+        <v>0.005168556701481388</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01637668187011867</v>
+        <v>0.01632047827196127</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -7775,19 +7775,19 @@
         <v>1723</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4824</v>
+        <v>4851</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004093160982041354</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001099302198908162</v>
+        <v>0.001098824026070427</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0114611304559979</v>
+        <v>0.01152623755603124</v>
       </c>
     </row>
     <row r="21">
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3758</v>
+        <v>3679</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005122160529144053</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01765782118354875</v>
+        <v>0.01728368174529758</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -7825,19 +7825,19 @@
         <v>8114</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4435</v>
+        <v>4196</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14763</v>
+        <v>14588</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.03900348713694394</v>
+        <v>0.03900348713694393</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02132037005027295</v>
+        <v>0.02017045116923187</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07096725739120119</v>
+        <v>0.07012531437081428</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -7846,19 +7846,19 @@
         <v>9204</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5134</v>
+        <v>5091</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15549</v>
+        <v>16413</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.02186897109113976</v>
+        <v>0.02186897109113975</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01219749168946523</v>
+        <v>0.01209588782295938</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03694417975600058</v>
+        <v>0.03899756534637157</v>
       </c>
     </row>
     <row r="22">
@@ -7875,19 +7875,19 @@
         <v>211108</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>207402</v>
+        <v>208132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>212356</v>
+        <v>212359</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9918357410542528</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9744229101839734</v>
+        <v>0.977852301059805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9976972528653075</v>
+        <v>0.9977111097181949</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>376</v>
@@ -7896,19 +7896,19 @@
         <v>197162</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>190045</v>
+        <v>190461</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>201158</v>
+        <v>201354</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9477614184843036</v>
+        <v>0.9477614184843035</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9135520070596486</v>
+        <v>0.915551414649908</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9669724030337591</v>
+        <v>0.9679118594125659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>675</v>
@@ -7917,19 +7917,19 @@
         <v>408270</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>401216</v>
+        <v>400411</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>413167</v>
+        <v>412965</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9700507519577127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9532900083265851</v>
+        <v>0.951376858692599</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9816848210485921</v>
+        <v>0.9812063290844257</v>
       </c>
     </row>
     <row r="23">
@@ -8021,19 +8021,19 @@
         <v>2113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4749</v>
+        <v>4600</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00297566965174563</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0008563103418094037</v>
+        <v>0.0009622768019432871</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.00668693952014252</v>
+        <v>0.006477041491971176</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -8042,19 +8042,19 @@
         <v>11995</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7743</v>
+        <v>7580</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18993</v>
+        <v>18763</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01347892373400783</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008700757303101268</v>
+        <v>0.008518314215838178</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02134257571646594</v>
+        <v>0.02108435690770208</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -8063,19 +8063,19 @@
         <v>14108</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9232</v>
+        <v>9263</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21248</v>
+        <v>21030</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.008816903111145453</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005769325375959343</v>
+        <v>0.00578869605297979</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01327895573196444</v>
+        <v>0.01314262011102285</v>
       </c>
     </row>
     <row r="25">
@@ -8092,19 +8092,19 @@
         <v>3834</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8681</v>
+        <v>8477</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.005398502896116439</v>
+        <v>0.00539850289611644</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001842631855942999</v>
+        <v>0.001842077995147491</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01222298365805614</v>
+        <v>0.01193543359712327</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -8113,19 +8113,19 @@
         <v>7511</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3954</v>
+        <v>4101</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12449</v>
+        <v>12812</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.008440635034938342</v>
+        <v>0.008440635034938341</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004443789050819299</v>
+        <v>0.004608935021350189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01398909962561471</v>
+        <v>0.01439734761501744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -8134,19 +8134,19 @@
         <v>11345</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7057</v>
+        <v>6913</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18073</v>
+        <v>17306</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.007090340863476624</v>
+        <v>0.007090340863476625</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004409997891642136</v>
+        <v>0.004320471628234862</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01129475817409873</v>
+        <v>0.0108150809518591</v>
       </c>
     </row>
     <row r="26">
@@ -8163,19 +8163,19 @@
         <v>13341</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8045</v>
+        <v>8100</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20356</v>
+        <v>20396</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01878341579569628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01132778320153023</v>
+        <v>0.01140472754728683</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02866083764172459</v>
+        <v>0.0287175376197763</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>77</v>
@@ -8184,19 +8184,19 @@
         <v>41071</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32695</v>
+        <v>32472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52840</v>
+        <v>51778</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.0461535226467726</v>
+        <v>0.04615352264677259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03674021164753026</v>
+        <v>0.03648943274936457</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05937824703172435</v>
+        <v>0.05818441516836077</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -8205,19 +8205,19 @@
         <v>54412</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44859</v>
+        <v>43304</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>67368</v>
+        <v>66036</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03400490645694298</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02803460294787386</v>
+        <v>0.02706254062959278</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04210154181634006</v>
+        <v>0.04126914909017004</v>
       </c>
     </row>
     <row r="27">
@@ -8234,19 +8234,19 @@
         <v>690952</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>682025</v>
+        <v>683077</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>696844</v>
+        <v>697415</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9728424116564416</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9602745877592664</v>
+        <v>0.9617548907354294</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.981139294418732</v>
+        <v>0.9819427401057643</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1566</v>
@@ -8255,19 +8255,19 @@
         <v>829311</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>815519</v>
+        <v>816298</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>839789</v>
+        <v>840646</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.9319269185842812</v>
+        <v>0.931926918584281</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9164291243893534</v>
+        <v>0.9173039101058774</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9437021889934483</v>
+        <v>0.9446645657887853</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2555</v>
@@ -8276,19 +8276,19 @@
         <v>1520261</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1504312</v>
+        <v>1505958</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1531979</v>
+        <v>1533715</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9500878495684348</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9401205448605092</v>
+        <v>0.9411492277334236</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9574108390646107</v>
+        <v>0.9584958604099403</v>
       </c>
     </row>
     <row r="28">
